--- a/report/SPBY.xlsx
+++ b/report/SPBY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/simontok/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AAB28B6-3103-2949-83AE-E3D6C1C94335}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7C687-AD7C-DF4C-A091-8D570B5D5083}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{81592790-259F-924B-B678-CA47AB3E5B9A}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13860" xr2:uid="{81592790-259F-924B-B678-CA47AB3E5B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Lampiran XII</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Untuk pembayaran</t>
   </si>
   <si>
-    <t>Biaya servis rutin dan penggantian sparepart LABORATORIUM KOMPUTER periode servis bulan Mei 2018 Poltekkes Kemenkes Semarang An. CV. Permata Indah</t>
-  </si>
-  <si>
     <t xml:space="preserve">         </t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Kegiatan, output, MAK</t>
   </si>
   <si>
-    <t>2079 / 994 / 002.C / 523121</t>
-  </si>
-  <si>
     <t>Kode</t>
   </si>
   <si>
@@ -157,24 +151,6 @@
   </si>
   <si>
     <t>Pejabat Pembuat Komitmen,</t>
-  </si>
-  <si>
-    <t>Wahyu Dwi Nuryanti, AMd.</t>
-  </si>
-  <si>
-    <t>Kusherini, Amd.</t>
-  </si>
-  <si>
-    <t>Marsum, BE, SPd. MHP.</t>
-  </si>
-  <si>
-    <t>NIP. 198612042014022002</t>
-  </si>
-  <si>
-    <t>NIP. 196406111989082001</t>
-  </si>
-  <si>
-    <t>NIP. 196307271984031001</t>
   </si>
 </sst>
 </file>
@@ -302,32 +278,14 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -340,9 +298,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -352,9 +307,6 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -377,6 +329,30 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -752,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF39A2A-634C-F44C-91E5-A6A2C6670C1D}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,122 +772,122 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -922,393 +898,375 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <v>13886250</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="B30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="B31" s="8"/>
+      <c r="D31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="D31" s="22" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="B32" s="28"/>
+      <c r="D32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="D32" s="14" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
+      <c r="H32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="B33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="21" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="G34" s="17"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="23" t="s">
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="C35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="B40" s="8"/>
+      <c r="E40" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="H40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="E40" s="14" t="s">
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="B41" s="8"/>
+      <c r="E41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="H41" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="E41" s="14" t="s">
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="H42" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="H42" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="26"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="26"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="33"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="E45" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="33"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="8"/>
+      <c r="E45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="E46" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
